--- a/MCM/Data/C类未来一年销量预测.xlsx
+++ b/MCM/Data/C类未来一年销量预测.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/intlyc/Documents/Research Code/MCM/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C9C98-7E7E-6448-BF40-4274E7C63561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBE1B6C-0708-954A-9D4B-234992D36A39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -100,6 +101,22 @@
   </si>
   <si>
     <t>C9</t>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年初库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测销售总量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -166,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -174,6 +191,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -189,7 +292,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +301,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37BE4B8-84BF-AF44-939C-0F5134520A2A}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -964,4 +1094,163 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C37A3A4-09A4-2341-AFE0-60BA1BC1AA0B}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5027</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2695</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4601</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1224</v>
+      </c>
+      <c r="F2" s="5">
+        <v>643</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5784</v>
+      </c>
+      <c r="H2" s="5">
+        <v>15280</v>
+      </c>
+      <c r="I2" s="5">
+        <v>17202</v>
+      </c>
+      <c r="J2" s="6">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5">
+        <v>114</v>
+      </c>
+      <c r="C3" s="5">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5">
+        <v>283</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1883</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-144</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-31</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1983</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1708</v>
+      </c>
+      <c r="J3" s="6">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8">
+        <f>B2-B3</f>
+        <v>4913</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" ref="C4:J4" si="0">C2-C3</f>
+        <v>2634</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>4318</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>-659</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>787</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>5815</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>13297</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="0"/>
+        <v>15494</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>6562</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>